--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490253.3987439128</v>
+        <v>-496689.9233194998</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12230792.5414282</v>
+        <v>12230202.56203779</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.8296615851456</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66.24139064177423</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615017</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>213.3133712456373</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,22 +820,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>85.84356265118751</v>
+        <v>56.40588930300272</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>98.95234596037889</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -956,7 +956,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>272.6098712222293</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968102</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>129.9618013605749</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>131.4500594658683</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>40.88643432951805</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>39.75507696688678</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>239.2093670865334</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>92.73469553428545</v>
+        <v>194.6126785212293</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>147.7068767177478</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>12.80988915479278</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1528,22 +1528,22 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>56.08464990973665</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>58.79353830711585</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>60.68516871456094</v>
@@ -1585,16 +1585,16 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>283.7357147238134</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362806</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>48.03670521159697</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>92.01077044629966</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>79.70435235543242</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277494</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,7 +2141,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658116</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838881</v>
+        <v>24.17382596575</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828894</v>
+        <v>52.06849973565012</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431726</v>
+        <v>70.57601873167845</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459967</v>
+        <v>55.72314698196085</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643939</v>
+        <v>41.29686219380058</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193185</v>
+        <v>41.22330424667969</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908577</v>
+        <v>42.97275566644696</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147791</v>
+        <v>53.79159358883909</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804995</v>
+        <v>41.14384575541114</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922188</v>
+        <v>18.98356133658307</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736778</v>
+        <v>9.882059701038983</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920511</v>
+        <v>88.0080032065663</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
@@ -3509,7 +3509,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2054.753008540631</v>
+        <v>1076.808053243645</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.577507043562</v>
+        <v>1076.808053243645</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>1076.808053243645</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>1076.808053243645</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>659.9136147736223</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475496</v>
+        <v>246.7508592616254</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475496</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475496</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475496</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>588.4870060424367</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>588.4870060424367</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737748</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737748</v>
+        <v>1477.302798955041</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737748</v>
+        <v>1477.302798955041</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737748</v>
+        <v>1477.302798955041</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737748</v>
+        <v>1477.302798955041</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021429</v>
+        <v>752.5718134969703</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622351</v>
+        <v>601.9175830570625</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837154</v>
+        <v>471.8286156785429</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946031</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777349</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777349</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475496</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653862</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875479</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1313.799610729138</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1083.682364862424</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675969</v>
+        <v>1083.682364862424</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431042</v>
+        <v>904.3681479379317</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.9426819363074</v>
+        <v>1586.907462241375</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7375640022966</v>
+        <v>1416.702344307364</v>
       </c>
       <c r="D4" t="n">
-        <v>774.7375640022966</v>
+        <v>1261.069231209879</v>
       </c>
       <c r="E4" t="n">
-        <v>688.0268946576628</v>
+        <v>1204.09358544927</v>
       </c>
       <c r="F4" t="n">
-        <v>530.7009598706356</v>
+        <v>1204.09358544927</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>1204.09358544927</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315751</v>
+        <v>1204.09358544927</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>1204.09358544927</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385314</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259113</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597377</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628587</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670295</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446873</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>1872.346253999474</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>1872.346253999474</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>1586.907462241375</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>1586.907462241375</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>1586.907462241375</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>1586.907462241375</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>1586.907462241375</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.552853376774</v>
+        <v>705.809018211932</v>
       </c>
       <c r="C5" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475496</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475496</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475496</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222168</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354871</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1706.678668603073</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1706.678668603073</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523737</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958336</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661854</v>
+        <v>1477.302798955041</v>
       </c>
       <c r="W5" t="n">
-        <v>873.552853376774</v>
+        <v>1106.303763923329</v>
       </c>
       <c r="X5" t="n">
-        <v>873.552853376774</v>
+        <v>1106.303763923329</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.552853376774</v>
+        <v>1106.303763923329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>655.0354850191687</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>504.3812545792609</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>885.6388105817838</v>
+        <v>874.8450714282536</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591876</v>
+        <v>1388.447750037942</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182857</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1175.453114034611</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>986.1460363846229</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>806.8318194601301</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922402</v>
+        <v>227.440329071034</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>227.440329071034</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475496</v>
+        <v>227.440329071034</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475496</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475496</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475496</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475496</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475496</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>686.2714420861565</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>450.5523902543907</v>
       </c>
       <c r="U7" t="n">
-        <v>506.4075462870908</v>
+        <v>450.5523902543907</v>
       </c>
       <c r="V7" t="n">
-        <v>240.428201107915</v>
+        <v>450.5523902543907</v>
       </c>
       <c r="W7" t="n">
-        <v>240.428201107915</v>
+        <v>450.5523902543907</v>
       </c>
       <c r="X7" t="n">
-        <v>199.1287724922402</v>
+        <v>450.5523902543907</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1287724922402</v>
+        <v>227.440329071034</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1627.0509867013</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="C8" t="n">
-        <v>1586.894343300404</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.453214517072</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.541695780699</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.541695780699</v>
+        <v>1173.829892374927</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.0509867013</v>
+        <v>932.2042690551959</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
         <v>623.6437572083089</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.3715098276311</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3715098276311</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3715098276311</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>528.3715098276311</v>
+        <v>752.1815294903392</v>
       </c>
       <c r="V10" t="n">
-        <v>528.3715098276311</v>
+        <v>486.2021843111635</v>
       </c>
       <c r="W10" t="n">
-        <v>528.3715098276311</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="X10" t="n">
-        <v>528.3715098276311</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="Y10" t="n">
-        <v>528.3715098276311</v>
+        <v>202.8717822423411</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1413.689529456423</v>
+        <v>1314.515400318201</v>
       </c>
       <c r="C11" t="n">
-        <v>1092.310303105547</v>
+        <v>1314.515400318201</v>
       </c>
       <c r="D11" t="n">
-        <v>1092.310303105547</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="E11" t="n">
-        <v>761.5230533682857</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>416.4248900444575</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>75.05840967865369</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>75.05840967865369</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2954.252057911387</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.941523761099</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2384.73876387558</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>2067.082433954831</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.388000021626</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.8129080859856</v>
+        <v>265.5980990866634</v>
       </c>
       <c r="C13" t="n">
-        <v>350.4040652981687</v>
+        <v>265.5980990866634</v>
       </c>
       <c r="D13" t="n">
-        <v>266.5672273468774</v>
+        <v>265.5980990866634</v>
       </c>
       <c r="E13" t="n">
-        <v>182.8046903522739</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F13" t="n">
-        <v>182.8046903522739</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>182.8046903522739</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5209,7 +5209,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245445</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>936.0428256245445</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W13" t="n">
-        <v>724.508698701916</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X13" t="n">
-        <v>562.224651631093</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.224651631093</v>
+        <v>379.0098426317708</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119023</v>
+        <v>1647.670720108871</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1326.291493757995</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>1012.646640120857</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937469</v>
+        <v>726.0449080766009</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2356.745864972977</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X14" t="n">
-        <v>2039.089535052228</v>
+        <v>1972.365154042076</v>
       </c>
       <c r="Y14" t="n">
-        <v>1714.395101119023</v>
+        <v>1647.670720108871</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.5439695543992</v>
+        <v>385.6496467242604</v>
       </c>
       <c r="C16" t="n">
-        <v>492.1351267665822</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="D16" t="n">
-        <v>408.2982888152907</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916216</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507884</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118218</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138155</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814507</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245436</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>741.859755591562</v>
+        <v>872.8795642628193</v>
       </c>
       <c r="W16" t="n">
-        <v>741.859755591562</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="X16" t="n">
-        <v>741.859755591562</v>
+        <v>499.0613902693678</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.5439695543992</v>
+        <v>499.0613902693678</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,22 +5595,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,13 +5923,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386233</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6069,10 +6069,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
         <v>1458.313011372373</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218595</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390256</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142171</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838401</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1840.480565683104</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2357.000848274085</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2357.000848274085</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517125</v>
@@ -6373,16 +6373,16 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232838</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192011</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286449</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
@@ -6470,25 +6470,25 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107028</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,16 +6549,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1986.079025206788</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6610,61 +6610,61 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904111</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463662</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108112</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835525</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2181.379885802492</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651163</v>
+        <v>2621.419486694821</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3081.259099401326</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076159</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>92.03228324525611</v>
+        <v>352.4112837456083</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5983691435694</v>
+        <v>835.9773696439215</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965122</v>
+        <v>365.6713676929729</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404871</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245269</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652545</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597525</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431904</v>
+        <v>86.73045008374218</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067502</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076203</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729546</v>
+        <v>723.1136360743162</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>906.3032701055254</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600013</v>
+        <v>1069.008037147233</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250205</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395509</v>
+        <v>835.7257283273698</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000931</v>
+        <v>666.3144371400724</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124409</v>
+        <v>546.1532258045806</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584488</v>
+        <v>436.9602755027491</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,40 +7105,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797591</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214671</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498046</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343038</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655131</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296498</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924224</v>
@@ -7430,7 +7430,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205777</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7567,16 +7567,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222411</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
         <v>812.1990332879427</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803421</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363586</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O2" t="n">
-        <v>188.8202997518129</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>416.7338824638918</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837488</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>460.0844827140008</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>423.8876955505255</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>335.794486708504</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,16 +8301,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>505.8103775089837</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886036</v>
+        <v>604.1626973083977</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>139.8876876845393</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,13 +8532,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>183.2986537257091</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>186.0888404416877</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>624.8237719316268</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,13 +9243,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>166.3231752016895</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,7 +9480,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,7 +9489,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,13 +9717,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>457.6168628059747</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3087888732268</v>
+        <v>263.0728605086219</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>177.7046091418031</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>53.0655441889351</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26.84026171492091</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>24.05191482627315</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>43.74366251607552</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>248.1740270750666</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.413983913639065</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>3.220559269225205</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.181721801112872e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1074829.552315733</v>
+        <v>1074528.778508853</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1074829.552315733</v>
+        <v>1074528.778508853</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953122.5311961196</v>
+        <v>953122.5311961197</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953122.5311961195</v>
+        <v>953122.5311961197</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1076864.143742962</v>
+        <v>1076864.143742961</v>
       </c>
     </row>
     <row r="9">
@@ -26317,10 +26317,10 @@
         <v>198365.3959026925</v>
       </c>
       <c r="D2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="E2" t="n">
-        <v>175294.9257668406</v>
+        <v>175294.9257668407</v>
       </c>
       <c r="F2" t="n">
         <v>175294.9257668407</v>
@@ -26338,16 +26338,16 @@
         <v>198365.3959026925</v>
       </c>
       <c r="K2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="L2" t="n">
         <v>198365.3959026925</v>
       </c>
-      <c r="L2" t="n">
-        <v>198365.3959026927</v>
-      </c>
       <c r="M2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="N2" t="n">
         <v>198365.3959026925</v>
-      </c>
-      <c r="N2" t="n">
-        <v>198365.3959026924</v>
       </c>
       <c r="O2" t="n">
         <v>198365.3959026924</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401332</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728565</v>
+        <v>62456.24177539664</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962309</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277113</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589424</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589419</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074765</v>
       </c>
       <c r="J4" t="n">
+        <v>135498.1974718596</v>
+      </c>
+      <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
-      <c r="K4" t="n">
-        <v>135498.1974718596</v>
-      </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
+        <v>134747.7050074765</v>
+      </c>
+      <c r="P4" t="n">
         <v>134747.7050074764</v>
-      </c>
-      <c r="P4" t="n">
-        <v>134747.7050074765</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228599.6583184157</v>
+        <v>-225150.5339247615</v>
       </c>
       <c r="C6" t="n">
-        <v>-46394.71002655989</v>
+        <v>-51291.8768907062</v>
       </c>
       <c r="D6" t="n">
-        <v>-51834.25200238411</v>
+        <v>-59570.54122577558</v>
       </c>
       <c r="E6" t="n">
-        <v>-77002.44392293866</v>
+        <v>-77212.17546962822</v>
       </c>
       <c r="F6" t="n">
-        <v>35120.11755110608</v>
+        <v>34910.38600441637</v>
       </c>
       <c r="G6" t="n">
-        <v>-41977.40395698568</v>
+        <v>-41977.40395698565</v>
       </c>
       <c r="H6" t="n">
-        <v>5447.921579696267</v>
+        <v>5447.921579696325</v>
       </c>
       <c r="I6" t="n">
         <v>5447.921579696267</v>
       </c>
       <c r="J6" t="n">
-        <v>-207593.996017589</v>
+        <v>-201077.7108630161</v>
       </c>
       <c r="K6" t="n">
-        <v>-791.8468230864964</v>
+        <v>-791.8468230866201</v>
       </c>
       <c r="L6" t="n">
-        <v>-55974.43575770756</v>
+        <v>-60023.27296817978</v>
       </c>
       <c r="M6" t="n">
-        <v>-36752.90787992673</v>
+        <v>-37804.6028911148</v>
       </c>
       <c r="N6" t="n">
-        <v>5447.921579696325</v>
+        <v>5447.921579696354</v>
       </c>
       <c r="O6" t="n">
-        <v>-22319.77246307481</v>
+        <v>-22319.77246307492</v>
       </c>
       <c r="P6" t="n">
-        <v>5447.921579696296</v>
+        <v>5447.921579696384</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.4391950293143</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660706</v>
+        <v>78.0703022192458</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551343</v>
+        <v>17.58004954287459</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506398</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506398</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.6601366691373</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>254.6008292874</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.4251411892549</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>7.001230367006286</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.15966136820199</v>
+        <v>97.59733471638678</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>290.2914005217198</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.67917345916612</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627044</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>97.85427204747111</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>69.33786351340783</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>190.8530846653287</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>349.4886695152119</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>153.3164349020715</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>189.8497083062326</v>
+        <v>87.97172531928879</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,25 +28743,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>128.2979821082774</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>28.01250026485209</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901181</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431633</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683160204</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738832966</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045126</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>76.79385455031647</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>128.2979821082773</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082768</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668696</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30639,10 +30639,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.7104901066881</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30879,28 +30879,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586693</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434437</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O2" t="n">
-        <v>39.25646232771646</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>326.6735356069736</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>373.0011178946862</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>274.1626439527982</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>185.4930394675788</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,16 +35021,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>413.4232554596717</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>47.2001287956504</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>93.7017183923758</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>539.4516590774601</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>73.93605315237758</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,7 +36209,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>292.6462316453562</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>213.0525346398109</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272228</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004798</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>372.244749951808</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,19 +37075,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>576.6378075765132</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>400.3644648949174</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>22.71185353989346</v>
+        <v>173.4759251752886</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272612</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>197.8808906882746</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184298</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634527946</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634527888</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.63600263452903</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184307</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634528635</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
